--- a/data/trans_camb/P59A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.50795055679846</v>
+        <v>-1.230382158569537</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.581419941678234</v>
+        <v>-2.524339049036978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.084396468491984</v>
+        <v>-3.799495647842752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.884871809943047</v>
+        <v>-3.055587747190739</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3699070895416453</v>
+        <v>-0.4128054425682846</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.851621428399586</v>
+        <v>-7.182122673601289</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9875178527374752</v>
+        <v>-1.207669548741184</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.588787386052355</v>
+        <v>-0.5776996614133167</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.414532254710586</v>
+        <v>-4.214469700306587</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.365412161972137</v>
+        <v>5.914002399718164</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.311455493572054</v>
+        <v>4.471886608816815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.49840312764535</v>
+        <v>4.697249621525022</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.323918024531866</v>
+        <v>5.636126053449804</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.91129202370138</v>
+        <v>8.403420682759062</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.628055594357089</v>
+        <v>2.568666732740637</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.467670277592399</v>
+        <v>4.462879890295554</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.912839983221624</v>
+        <v>5.127331562968275</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.916452371260299</v>
+        <v>2.024899200985784</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2007945349747739</v>
+        <v>-0.1865439059804829</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3691862344871654</v>
+        <v>-0.3487976590416654</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6107082026737437</v>
+        <v>-0.5966563544179276</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2464485177301545</v>
+        <v>-0.2563256241746855</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03870301520211426</v>
+        <v>-0.04055563924349907</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5883722799184661</v>
+        <v>-0.620119536363981</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1132533187531517</v>
+        <v>-0.136351179385941</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06797833400513913</v>
+        <v>-0.06943442541921648</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.509777063656683</v>
+        <v>-0.491591792307627</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.256692478581413</v>
+        <v>1.42112161268712</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.03442329934693</v>
+        <v>1.044885044932194</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.19875061286709</v>
+        <v>1.102106225184091</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.815825182069114</v>
+        <v>0.7204105422839751</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.161264748766904</v>
+        <v>1.038779102916931</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3448853915168884</v>
+        <v>0.3509332933046954</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6993132767758143</v>
+        <v>0.6696045990915155</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7531178376836497</v>
+        <v>0.794960732429053</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2703341630191745</v>
+        <v>0.3146866611815877</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.029356284442875</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.687007605260034</v>
+        <v>2.687007605260028</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2353028686276848</v>
@@ -878,7 +878,7 @@
         <v>6.271838326603124</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.027251879950578</v>
+        <v>4.027251879950572</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.00873938096869</v>
+        <v>-6.978286030230886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.614689425243673</v>
+        <v>2.058484089563473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.276728027436355</v>
+        <v>-2.366759161213575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.130613290196625</v>
+        <v>-5.701553267175409</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.4960560137658</v>
+        <v>-4.329763756040279</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.380747516601332</v>
+        <v>-4.619298492225536</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.476663836000999</v>
+        <v>-4.298976739198119</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.58202149571823</v>
+        <v>1.687992719137268</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.192851499950458</v>
+        <v>-1.465735483238454</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.89254664231288</v>
+        <v>4.852378489097942</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.52244098065622</v>
+        <v>14.83452060911858</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.64239313137328</v>
+        <v>12.20874357856277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.55758047248682</v>
+        <v>10.2090404221753</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.827683640033012</v>
+        <v>10.01383330740292</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.66425311706458</v>
+        <v>10.77047360939552</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.866379403543399</v>
+        <v>4.992874268001628</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.39267038256154</v>
+        <v>11.51922616668844</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.221618463049614</v>
+        <v>9.499220446877747</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1086676670130288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09638709359126203</v>
+        <v>0.09638709359126184</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.009184668319518698</v>
@@ -983,7 +983,7 @@
         <v>0.2448111028966747</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1571972877858583</v>
+        <v>0.1571972877858581</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2660734527082317</v>
+        <v>-0.2612185595746805</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06460746910537216</v>
+        <v>0.07351235007098829</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1188836726353464</v>
+        <v>-0.09172601541135754</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1617350234536818</v>
+        <v>-0.1795235940406218</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1408700114186172</v>
+        <v>-0.1409112632319127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1647543173428752</v>
+        <v>-0.1514467780728025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.160564124751254</v>
+        <v>-0.1569077915243468</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05929620869170615</v>
+        <v>0.06305753121130095</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.04850520597944653</v>
+        <v>-0.0528302670117503</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2318821014629541</v>
+        <v>0.2314959269631093</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6709359449041267</v>
+        <v>0.6918607542298457</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.540431571683508</v>
+        <v>0.5747923182236788</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4399914934195657</v>
+        <v>0.4296846709752635</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4051739292585188</v>
+        <v>0.4124816863511284</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.434632710224002</v>
+        <v>0.4741621351435716</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2087442259822341</v>
+        <v>0.2140623137044674</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4992013220366248</v>
+        <v>0.4982912602349565</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3950924331945367</v>
+        <v>0.3983199140129214</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.897864437404542</v>
+        <v>0.7503674453296324</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.841699367184503</v>
+        <v>4.764433263419151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.15061342273702</v>
+        <v>10.10896197082415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.838982327222968</v>
+        <v>9.516629711581889</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.788717232213067</v>
+        <v>4.814455495532352</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.70722412000343</v>
+        <v>12.38591279026414</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.589209031729265</v>
+        <v>8.041083548525215</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.967858377157127</v>
+        <v>7.402897836035684</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.41375410492028</v>
+        <v>13.72265240670662</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.72050713687165</v>
+        <v>19.81002705626766</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.13867431784382</v>
+        <v>21.82537084920669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.75211634879825</v>
+        <v>27.08181519645111</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30.1389864744688</v>
+        <v>29.67784405871523</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>23.00230605300315</v>
+        <v>22.03824150764384</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.30644710132784</v>
+        <v>28.82693525908818</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>21.83048213513363</v>
+        <v>21.38983142139304</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>20.15088630094603</v>
+        <v>19.69442025051407</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>25.10304483650884</v>
+        <v>25.6872906094649</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09128551016921145</v>
+        <v>0.01707503940468935</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2884173606659896</v>
+        <v>0.2477574295984103</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.585924658118599</v>
+        <v>0.5533147417225912</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5012563334814862</v>
+        <v>0.5529191103978792</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.320269151461929</v>
+        <v>0.2656093505770908</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5794324188538541</v>
+        <v>0.6553486914913786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4916368042811066</v>
+        <v>0.4832984784528174</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5228109770926944</v>
+        <v>0.4375432500146229</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8462660077546366</v>
+        <v>0.8614672560353334</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.481210930578215</v>
+        <v>2.787215538213469</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.887182417457752</v>
+        <v>2.896900595738948</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.470986121230834</v>
+        <v>3.911949341235576</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.698851640854273</v>
+        <v>3.759648979759844</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.862181107772764</v>
+        <v>2.688777384972699</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.62629864701507</v>
+        <v>3.636302482639871</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.46908637074158</v>
+        <v>2.391420593991661</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.474764646187194</v>
+        <v>2.128685870998524</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.743395315176635</v>
+        <v>3.057385779190259</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-6.001483424387436</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-6.724705196576364</v>
+        <v>-6.724705196576362</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.641914585073231</v>
@@ -1306,7 +1306,7 @@
         <v>1.752096052372142</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.794177984113437</v>
+        <v>4.79417798411344</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.44574071206089</v>
+        <v>-13.13227189397246</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.75276553292315</v>
+        <v>-16.56194135613478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.51634989476108</v>
+        <v>-16.0985849206144</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.240303882149304</v>
+        <v>1.262442797842483</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.999066702475963</v>
+        <v>3.025274947517552</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.89816822930141</v>
+        <v>10.72310316152759</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.899876565896122</v>
+        <v>-2.601450305033489</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.628865686070202</v>
+        <v>-4.519821975614937</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.671760083207272</v>
+        <v>-1.316317180796711</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.71219933942053</v>
+        <v>10.54495288370489</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.217708816432958</v>
+        <v>3.685214212378685</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.451870029406167</v>
+        <v>1.918699158117748</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.31117454676648</v>
+        <v>14.05649270680124</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.98226477983607</v>
+        <v>14.17580921242704</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.56138622125986</v>
+        <v>20.61084051280739</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.07298197863991</v>
+        <v>10.52996335328936</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.389838218240276</v>
+        <v>7.139435788707516</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.694987530252796</v>
+        <v>9.865240450151285</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1793868256660184</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4908477301136889</v>
+        <v>0.4908477301136892</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4592025364839796</v>
+        <v>-0.5044223883449911</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6411998095246362</v>
+        <v>-0.6409882992406989</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.640914114384728</v>
+        <v>-0.6265302697029959</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2137231316620811</v>
+        <v>-0.2109694745392005</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3129743069840041</v>
+        <v>0.2499539676503136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.554163915120117</v>
+        <v>1.244348240533423</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2385311344034774</v>
+        <v>-0.2109186629581745</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3296228473579654</v>
+        <v>-0.3529238395392315</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1243934441293543</v>
+        <v>-0.1103835039666228</v>
       </c>
     </row>
     <row r="27">
@@ -1457,25 +1457,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.045347164586675</v>
+        <v>0.8716137505126963</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2746789856360656</v>
+        <v>0.3400618750363737</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1453649806630405</v>
+        <v>0.1925408285984805</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>1.540014767963767</v>
+        <v>1.476000792633062</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.309745980937393</v>
+        <v>1.069448899369954</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.47526720472484</v>
+        <v>1.503762437873565</v>
       </c>
     </row>
     <row r="28">
@@ -1496,7 +1496,7 @@
         <v>3.016388207729317</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.9690297292217307</v>
+        <v>-0.969029729221732</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>8.052471309342483</v>
@@ -1514,7 +1514,7 @@
         <v>2.460724939772474</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.063784791002365</v>
+        <v>3.063784791002366</v>
       </c>
     </row>
     <row r="29">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.23392098900276</v>
+        <v>-14.45826242159913</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.31643363130476</v>
+        <v>-10.89432461601573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.65154246156735</v>
+        <v>-13.24532721124736</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3191601259360019</v>
+        <v>1.671948907482516</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.538996759851127</v>
+        <v>-3.412484997723647</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.3941847304836617</v>
+        <v>-1.121490846696114</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.190767371781768</v>
+        <v>-2.23987036105394</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.333441371575592</v>
+        <v>-3.39441032683685</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.573845814341449</v>
+        <v>-2.343760664439408</v>
       </c>
     </row>
     <row r="30">
@@ -1560,31 +1560,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.82257208837315</v>
+        <v>11.91393468860359</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.30424865392518</v>
+        <v>14.10612707628751</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.916906590512775</v>
+        <v>7.946876131897648</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.64776742955187</v>
+        <v>16.22576160287129</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.255036815603064</v>
+        <v>6.69074992717518</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.541847540484218</v>
+        <v>8.428350934199011</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.72011767216871</v>
+        <v>11.51494521020383</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.934050102276394</v>
+        <v>8.051493638867994</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.46123658103446</v>
+        <v>7.610141874315721</v>
       </c>
     </row>
     <row r="31">
@@ -1601,7 +1601,7 @@
         <v>0.2245217363860643</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.072128725625261</v>
+        <v>-0.0721287256252611</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>2.500173054061531</v>
@@ -1619,7 +1619,7 @@
         <v>0.3536413110351702</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4403096228706786</v>
+        <v>0.4403096228706788</v>
       </c>
     </row>
     <row r="32">
@@ -1630,31 +1630,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7385035750740956</v>
+        <v>-0.7700490299529562</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.514203026226755</v>
+        <v>-0.5353739005668099</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5840441480332366</v>
+        <v>-0.5801476751224343</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3384437875383816</v>
+        <v>-0.06633300275879161</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6957296024400623</v>
+        <v>-0.6907802439201627</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1850786012961532</v>
+        <v>-0.2203894630691324</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2759975552425247</v>
+        <v>-0.2551400147935471</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3380275764265593</v>
+        <v>-0.347439138647662</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2478410565416035</v>
+        <v>-0.2397468441131216</v>
       </c>
     </row>
     <row r="33">
@@ -1665,29 +1665,27 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.931467366910654</v>
+        <v>1.848264075174447</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.327993296163681</v>
+        <v>2.112334104935818</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.204289976792953</v>
+        <v>1.327235544441757</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>14.2424339058101</v>
+        <v>14.86578560214781</v>
       </c>
       <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="n">
-        <v>7.868721662037377</v>
-      </c>
+      <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>2.850000127298048</v>
+        <v>2.735520661979474</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.099047530262088</v>
+        <v>2.127219035085983</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.963563400121901</v>
+        <v>2.030984258063137</v>
       </c>
     </row>
     <row r="34">
@@ -1726,7 +1724,7 @@
         <v>1.694116383339705</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.43689864118549</v>
+        <v>4.436898641185488</v>
       </c>
     </row>
     <row r="35">
@@ -1737,29 +1735,29 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.484729468644754</v>
+        <v>-4.853177917555862</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.260372310459218</v>
+        <v>-2.803383780013327</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.7453147822208332</v>
+        <v>-0.9380668254100307</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.6621246929420189</v>
+        <v>0.6683503728207721</v>
       </c>
       <c r="G35" s="5" t="inlineStr"/>
       <c r="H35" s="5" t="n">
-        <v>1.141392609098189</v>
+        <v>1.118683859008295</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.4906254594939043</v>
+        <v>0.4733906396648989</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.1310966394859463</v>
+        <v>-0.49995817654501</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.278814094239211</v>
+        <v>2.202517217536776</v>
       </c>
     </row>
     <row r="36">
@@ -1770,29 +1768,29 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.310418810494303</v>
+        <v>10.03477712464643</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.05684697539389</v>
+        <v>10.42434722852775</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.05649988472719</v>
+        <v>11.98883303205868</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.109883912145301</v>
+        <v>7.924345467337917</v>
       </c>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="5" t="n">
-        <v>4.518609925213597</v>
+        <v>4.417074840564663</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.269625993849533</v>
+        <v>6.794642698170778</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.036603736747795</v>
+        <v>4.066930581491557</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.771369787346028</v>
+        <v>6.807308331213985</v>
       </c>
     </row>
     <row r="37">
@@ -1829,7 +1827,7 @@
         <v>3.4026044375134</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>8.911436754736622</v>
+        <v>8.911436754736618</v>
       </c>
     </row>
     <row r="38">
@@ -1884,7 +1882,7 @@
         <v>-0.393029823700991</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.076832280918662</v>
+        <v>4.076832280918661</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.8764980526745443</v>
@@ -1902,7 +1900,7 @@
         <v>0.6280104773725612</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.616610605820066</v>
+        <v>1.616610605820065</v>
       </c>
     </row>
     <row r="41">
@@ -1913,13 +1911,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.398016573955964</v>
+        <v>-9.594609988051543</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.748256547312453</v>
+        <v>-5.805492251901296</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.823178374404982</v>
+        <v>-1.561012743636279</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>0</v>
@@ -1928,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.288410615805662</v>
+        <v>0.2989681429320062</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.019759949261069</v>
+        <v>-1.248879201274483</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.8823614891073549</v>
+        <v>-0.957271859635068</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.04651866988527033</v>
+        <v>0.08181536612431742</v>
       </c>
     </row>
     <row r="42">
@@ -1951,28 +1949,28 @@
         <v>0</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.287850327365869</v>
+        <v>3.813394747759375</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10.09578543924375</v>
+        <v>9.416586057972246</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.024442996734876</v>
+        <v>3.374065302715035</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.640050131361521</v>
+        <v>4.370716276367919</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.788358243659317</v>
+        <v>1.929189681023221</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.664431754469575</v>
+        <v>1.330197929166837</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.976742249871275</v>
+        <v>2.786909128123702</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.090000340131925</v>
+        <v>2.946459473083315</v>
       </c>
     </row>
     <row r="43">
@@ -1989,7 +1987,7 @@
         <v>-0.140891634412515</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>1.461445235568986</v>
+        <v>1.461445235568985</v>
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
@@ -2013,7 +2011,7 @@
         <v>0.9721521963687938</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>2.502492566200821</v>
+        <v>2.50249256620082</v>
       </c>
     </row>
     <row r="44">
@@ -2026,17 +2024,15 @@
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>-0.5092164409182355</v>
+        <v>-0.6164515949651564</v>
       </c>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="inlineStr"/>
-      <c r="J44" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J44" s="6" t="inlineStr"/>
       <c r="K44" s="6" t="n">
-        <v>-0.3512341074353019</v>
+        <v>-0.287433066580063</v>
       </c>
     </row>
     <row r="45">
@@ -2092,7 +2088,7 @@
         <v>3.799029486683682</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>3.10071591849571</v>
+        <v>3.100715918495707</v>
       </c>
     </row>
     <row r="47">
@@ -2103,31 +2099,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.400739630199861</v>
+        <v>-1.036598902784986</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.9687056725208859</v>
+        <v>1.088292975751248</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.2198309687180416</v>
+        <v>-0.2448711353073303</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.694058523597776</v>
+        <v>1.604483674913488</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.406218629832959</v>
+        <v>1.624587818747542</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.165515601687285</v>
+        <v>1.219890833572135</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.067732494470189</v>
+        <v>0.874092158650413</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.930508688228859</v>
+        <v>1.985744982890754</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.379094303442914</v>
+        <v>1.12743181333291</v>
       </c>
     </row>
     <row r="48">
@@ -2138,31 +2134,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.286999572334635</v>
+        <v>4.541637952771295</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.425852793502419</v>
+        <v>6.783216255047336</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.437599337600925</v>
+        <v>5.744812201324862</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.72645152758094</v>
+        <v>6.788239991254643</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>6.115047707850193</v>
+        <v>6.407997810856648</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.789859120543746</v>
+        <v>5.829119000674901</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.83357715780578</v>
+        <v>4.764690096776265</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>5.660994450797285</v>
+        <v>5.794798899977387</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.982936905482014</v>
+        <v>4.800732832152165</v>
       </c>
     </row>
     <row r="49">
@@ -2197,7 +2193,7 @@
         <v>0.3193812291113401</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2606745919307769</v>
+        <v>0.2606745919307767</v>
       </c>
     </row>
     <row r="50">
@@ -2208,31 +2204,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.09505951200277757</v>
+        <v>-0.0687354381938164</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.06151121376373115</v>
+        <v>0.06932217308028382</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.01519904981949697</v>
+        <v>-0.01464516321175163</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1370776006009132</v>
+        <v>0.1469991145564151</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1196127294101944</v>
+        <v>0.1346600659761175</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1077470989356924</v>
+        <v>0.1031360152209869</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.08399675208351649</v>
+        <v>0.06838747594245324</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1472153796687067</v>
+        <v>0.1480258899339805</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1060863682518462</v>
+        <v>0.08869442051392111</v>
       </c>
     </row>
     <row r="51">
@@ -2243,31 +2239,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3387057090009631</v>
+        <v>0.3673240210276303</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5264061849250011</v>
+        <v>0.5339148096892691</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4510038104943531</v>
+        <v>0.4752935683159482</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7121738565047037</v>
+        <v>0.7533185648694425</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6774954246314857</v>
+        <v>0.6870248829354851</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.657555375122262</v>
+        <v>0.640015424398456</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4400196419816858</v>
+        <v>0.4329904933327515</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5126463591928457</v>
+        <v>0.5241798287309692</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4606408436617801</v>
+        <v>0.4402904298979106</v>
       </c>
     </row>
     <row r="52">
